--- a/src/test/java/com/ii/qa/excel/Excel Copy.xlsx
+++ b/src/test/java/com/ii/qa/excel/Excel Copy.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14310" windowHeight="2445" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14310" windowHeight="2445"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
     <sheet name="AddMMCButtonTestcases" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:L5"/>
 </workbook>
 </file>
 
@@ -443,7 +444,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -469,7 +470,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
